--- a/JCF_TB_1794_Begriffe_Divers.xlsx
+++ b/JCF_TB_1794_Begriffe_Divers.xlsx
@@ -6,15 +6,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Heterogene Begriffe - Heterogen" sheetId="1" r:id="rId4"/>
+    <sheet name="Diverse Begriffe - Diverse Begr" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
-  <si>
-    <t>Begriffe Divers</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+  <si>
+    <t>Diverse Begriffe</t>
   </si>
   <si>
     <t>NameText</t>
@@ -336,6 +336,351 @@
   </si>
   <si>
     <t>Christopher Polhem’s mechanisches alphabet</t>
+  </si>
+  <si>
+    <t>Scheeren Flotte</t>
+  </si>
+  <si>
+    <t>note?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>eine schöne Sammlung von microscopischen Objecten</t>
+    </r>
+  </si>
+  <si>
+    <t>Sammlung?</t>
+  </si>
+  <si>
+    <t>Plageman</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Buchsbaum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Ephemerida</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Cornea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Bosphori</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Johanniswürmchen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Schlei</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Infusionstierchen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Salpeter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Salarmoniak</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>cyprischer Vitriol</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Grünspan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Die ganze Einrichtung</t>
+    </r>
+  </si>
+  <si>
+    <t>Stückbohrmachine</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">das Stük von </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Amor</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> und </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Psyche</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">des leztverstorbenen Königs </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Gustav</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> III. Figur in Gyps </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Basset-Drehbank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ein Webestuhl, der von sich selber webt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>eine Copier - Maschine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Cuffisches</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Telescop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Conchylien</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Penna marinae</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Echiniten</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Torpedo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Neunauge</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -345,7 +690,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -353,11 +698,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -392,7 +732,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,14 +751,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -430,7 +764,9 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -440,30 +776,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -472,7 +786,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,97 +797,41 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,7 +842,24 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -596,50 +871,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -659,10 +922,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -681,10 +942,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -878,15 +1139,14 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -901,29 +1161,35 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1176,20 +1442,14 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="6350" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1478,7 +1738,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1759,323 +2019,584 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A2:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="60" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.95" customHeight="1">
+    <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="20.65" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" ht="60.6" customHeight="1">
-      <c r="A3" t="s" s="7">
+    </row>
+    <row r="3" ht="60.55" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="112.35" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" ht="34.35" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="A5" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" ht="34.35" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="A6" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" ht="34.35" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="A7" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" ht="32.45" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="32.35" customHeight="1">
+      <c r="A8" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" ht="32.45" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" ht="32.35" customHeight="1">
+      <c r="A9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>11</v>
       </c>
-      <c r="C9" t="s" s="12">
+      <c r="C9" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" ht="20.45" customHeight="1">
-      <c r="A10" t="s" s="10">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>12</v>
       </c>
-      <c r="C10" t="s" s="12">
+      <c r="C10" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" ht="32.45" customHeight="1">
-      <c r="A11" t="s" s="10">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" ht="32.35" customHeight="1">
+      <c r="A11" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>12</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" ht="21.4" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" ht="21.35" customHeight="1">
+      <c r="A12" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>23</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" ht="21.4" customHeight="1">
-      <c r="A13" t="s" s="10">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" ht="21.35" customHeight="1">
+      <c r="A13" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>23</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" ht="34.35" customHeight="1">
-      <c r="A14" t="s" s="10">
+      <c r="A14" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" ht="21.4" customHeight="1">
-      <c r="A15" t="s" s="10">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" ht="21.35" customHeight="1">
+      <c r="A15" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>30</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" ht="34.35" customHeight="1">
-      <c r="A16" t="s" s="10">
+      <c r="A16" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>32</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" ht="47.45" customHeight="1">
-      <c r="A17" t="s" s="10">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" ht="47.35" customHeight="1">
+      <c r="A17" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>38</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D17" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" ht="20.45" customHeight="1">
-      <c r="A18" t="s" s="10">
+    </row>
+    <row r="18" ht="20.35" customHeight="1">
+      <c r="A18" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>38</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" ht="20.45" customHeight="1">
-      <c r="A19" t="s" s="10">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" ht="20.35" customHeight="1">
+      <c r="A19" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>38</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="E19" s="6"/>
     </row>
     <row r="20" ht="34.35" customHeight="1">
-      <c r="A20" t="s" s="10">
+      <c r="A20" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>41</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" ht="248.45" customHeight="1">
-      <c r="A21" t="s" s="10">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" ht="248.35" customHeight="1">
+      <c r="A21" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>41</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" ht="56.45" customHeight="1">
-      <c r="A22" t="s" s="10">
+    </row>
+    <row r="22" ht="56.35" customHeight="1">
+      <c r="A22" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>43</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="C22" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" ht="20.45" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14"/>
+    </row>
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="B23" s="8">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" ht="60.35" customHeight="1">
+      <c r="A24" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="B24" s="8">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="21.35" customHeight="1">
+      <c r="A25" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="B25" s="8">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" ht="21.35" customHeight="1">
+      <c r="A26" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="B26" s="8">
+        <v>45</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" ht="21.35" customHeight="1">
+      <c r="A27" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="B27" s="8">
+        <v>45</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" ht="21.35" customHeight="1">
+      <c r="A28" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="B28" s="8">
+        <v>45</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" ht="34.35" customHeight="1">
+      <c r="A29" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="B29" s="8">
+        <v>45</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" ht="21.35" customHeight="1">
+      <c r="A30" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="B30" s="8">
+        <v>45</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" ht="34.35" customHeight="1">
+      <c r="A31" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="B31" s="8">
+        <v>45</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" ht="21.35" customHeight="1">
+      <c r="A32" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="B32" s="8">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" ht="21.35" customHeight="1">
+      <c r="A33" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="B33" s="8">
+        <v>45</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" ht="34.35" customHeight="1">
+      <c r="A34" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="B34" s="8">
+        <v>45</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" ht="21.35" customHeight="1">
+      <c r="A35" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="B35" s="8">
+        <v>45</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" t="s" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" ht="34.35" customHeight="1">
+      <c r="A36" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="B36" s="8">
+        <v>46</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" t="s" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" ht="47.35" customHeight="1">
+      <c r="A37" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="B37" s="8">
+        <v>47</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" ht="60.35" customHeight="1">
+      <c r="A38" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="B38" s="8">
+        <v>47</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" ht="34.35" customHeight="1">
+      <c r="A39" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="B39" s="8">
+        <v>48</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" ht="47.35" customHeight="1">
+      <c r="A40" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="B40" s="8">
+        <v>48</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" ht="34.35" customHeight="1">
+      <c r="A41" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="B41" s="8">
+        <v>48</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" ht="34.35" customHeight="1">
+      <c r="A42" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="B42" s="8">
+        <v>51</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" ht="21.35" customHeight="1">
+      <c r="A43" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="B43" s="8">
+        <v>53</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" ht="21.35" customHeight="1">
+      <c r="A44" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="B44" s="8">
+        <v>53</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" ht="21.35" customHeight="1">
+      <c r="A45" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="B45" s="8">
+        <v>53</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" ht="21.35" customHeight="1">
+      <c r="A46" t="s" s="7">
+        <v>67</v>
+      </c>
+      <c r="B46" s="8">
+        <v>53</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" ht="21.35" customHeight="1">
+      <c r="A47" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="B47" s="8">
+        <v>53</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" ht="20.35" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D21" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
